--- a/MainCode/PreguntasCiencias/PreguntasCiencias.xlsx
+++ b/MainCode/PreguntasCiencias/PreguntasCiencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiogonzalez/Documents/GitHub/ProyectoIntegradorPrimerSemestre/Archivo Exel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiogonzalez/Documents/GitHub/ProyectoIntegradorPrimerSemestre/MainCode/PreguntasCiencias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF7B324-A1C2-A14C-9A1E-E7164D530DE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B640AAF2-46B0-024E-ABA1-CFBF9FB456FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{F4C8BBAB-4DFE-1142-B99E-3F27D2E75C10}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17920" windowHeight="22400" xr2:uid="{F4C8BBAB-4DFE-1142-B99E-3F27D2E75C10}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Preguntas</t>
   </si>
@@ -77,9 +77,6 @@
     <t>El Nucleo</t>
   </si>
   <si>
-    <t xml:space="preserve">En la membrana </t>
-  </si>
-  <si>
     <t>En el Citoplasma</t>
   </si>
   <si>
@@ -135,6 +132,57 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>En la membrana </t>
+  </si>
+  <si>
+    <t>La estructura molecular fue descubierta por: </t>
+  </si>
+  <si>
+    <t>Watson y Crick </t>
+  </si>
+  <si>
+    <t>John y Paul</t>
+  </si>
+  <si>
+    <t>Roger y David</t>
+  </si>
+  <si>
+    <t>Cual es el elemento mas raro en la tierra </t>
+  </si>
+  <si>
+    <t>Astato</t>
+  </si>
+  <si>
+    <t>Paladio</t>
+  </si>
+  <si>
+    <t>Mendeleyev</t>
+  </si>
+  <si>
+    <t>El Kriptón es:</t>
+  </si>
+  <si>
+    <t>El cuarto gas noble en la tabla periódica</t>
+  </si>
+  <si>
+    <t>La debilidad de Superman</t>
+  </si>
+  <si>
+    <t>El primer gas noble en la tabla periódica</t>
+  </si>
+  <si>
+    <t>Quien creo el primer automóvil </t>
+  </si>
+  <si>
+    <t>Karl Benz </t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>Enzo Ferrari </t>
   </si>
 </sst>
 </file>
@@ -176,12 +224,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,7 +547,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,41 +564,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -562,23 +607,23 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -587,151 +632,207 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+    <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -742,7 +843,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>

--- a/MainCode/PreguntasCiencias/PreguntasCiencias.xlsx
+++ b/MainCode/PreguntasCiencias/PreguntasCiencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiogonzalez/Documents/GitHub/ProyectoIntegradorPrimerSemestre/MainCode/PreguntasCiencias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B640AAF2-46B0-024E-ABA1-CFBF9FB456FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B0E73C-60E1-3A4D-8469-EB8ADED44BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17920" windowHeight="22400" xr2:uid="{F4C8BBAB-4DFE-1142-B99E-3F27D2E75C10}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/MainCode/PreguntasCiencias/PreguntasCiencias.xlsx
+++ b/MainCode/PreguntasCiencias/PreguntasCiencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiogonzalez/Documents/GitHub/ProyectoIntegradorPrimerSemestre/MainCode/PreguntasCiencias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B0E73C-60E1-3A4D-8469-EB8ADED44BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E777667-A2ED-6240-A0CE-25D819C16C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17920" windowHeight="22400" xr2:uid="{F4C8BBAB-4DFE-1142-B99E-3F27D2E75C10}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
